--- a/biology/Zoologie/Cormoran_des_bancs/Cormoran_des_bancs.xlsx
+++ b/biology/Zoologie/Cormoran_des_bancs/Cormoran_des_bancs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalacrocorax neglectus
 Le Cormoran des bancs (Phalacrocorax neglectus) est une espèce d'oiseaux de la famille des phalacrocoracidés qui se retrouve le long des côtes de la Namibie et de l'Afrique du Sud.
@@ -512,7 +524,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cormoran des bancs niche sur les îles rocheuses le long des côtes près du niveau de l'eau.  Les nids sont occasionnellement détruits par les vagues.  Il utilise parfois des structures artificielles.  Il niche en colonie, généralement de moins de 100 couples.
 </t>
@@ -543,9 +557,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit de poissons, de crustacés et de céphalopodes[1] à un maximum de huit ou neuf kilomètres des côtes, seul ou en petits groupes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit de poissons, de crustacés et de céphalopodes à un maximum de huit ou neuf kilomètres des côtes, seul ou en petits groupes.
 </t>
         </is>
       </c>
